--- a/전처리 관련/네이버_영진위 안겹치는 영화 검토(김지수).xlsx
+++ b/전처리 관련/네이버_영진위 안겹치는 영화 검토(김지수).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1022">
   <si>
     <t>메콩호텔</t>
   </si>
@@ -2530,10 +2530,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>조나단 글레이저</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>로브 라이너</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2554,14 +2550,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>살인자의 기억법</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 .09.06 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>알렉산드르 아야</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3411,6 +3399,103 @@
   </si>
   <si>
     <t>프랑코 제피렐리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소냐 프리셀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>롭 라이너</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.C. 하이킨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>던컨 워드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장판. 네이버에는 따로 영화나 날짜 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 자크 베넥스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아담 네우츠키-불프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사토 케이이치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스엠타운라이브인도쿄스페셜에디션3d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미아 한센-로브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10아이템오어레스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지영,정가영,김태진,정가영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리야 알리 커티,미자 모하메드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>강이관,윤성현,신동일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수동,백수호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>울리히 세이들</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤그다슈렌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경만,김경만</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영진위 - 사랑의 묘약 감독 없는 것 1개 더 있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영진위에 감독명 없는 것 하나 더 있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>조나단 글래이저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이티피페스티벌08x09서태지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재개봉 일자에도 없고 영화목록에도 없음
+KOFIC csv에도 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑소와 오종</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4026,7 +4111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4046,6 +4131,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8451,8 +8542,8 @@
   <dimension ref="A1:H323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8467,13 +8558,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>320</v>
@@ -8500,7 +8591,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -8626,10 +8717,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C10" s="5">
         <v>41965</v>
@@ -8646,7 +8737,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C11" s="5">
         <v>41865</v>
@@ -8682,7 +8773,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C13" s="5">
         <v>41018</v>
@@ -8699,7 +8790,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C14" s="5">
         <v>41025</v>
@@ -8718,7 +8809,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C15" s="5">
         <v>41941</v>
@@ -8781,7 +8872,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>333</v>
@@ -8805,7 +8896,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C20" s="5">
         <v>41545</v>
@@ -8890,7 +8981,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C25" s="5">
         <v>41697</v>
@@ -8943,7 +9034,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C28" s="5">
         <v>43251</v>
@@ -8960,7 +9051,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C29" s="5">
         <v>40199</v>
@@ -8974,7 +9065,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>344</v>
@@ -9003,7 +9094,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -9028,7 +9119,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C33" s="5">
         <v>43586</v>
@@ -9062,7 +9153,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C35" s="5">
         <v>41487</v>
@@ -9076,24 +9167,24 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C36" s="5">
         <v>42250</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -9116,7 +9207,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C38" s="5">
         <v>42028</v>
@@ -9169,7 +9260,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C41" s="5">
         <v>41865</v>
@@ -9185,7 +9276,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>356</v>
@@ -9194,7 +9285,7 @@
         <v>42586</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>645</v>
@@ -9207,14 +9298,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C43" s="5">
         <v>41235</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -9239,7 +9330,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C45" s="5">
         <v>42439</v>
@@ -9256,7 +9347,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C46" s="5">
         <v>42434</v>
@@ -9275,7 +9366,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C47" s="5">
         <v>41515</v>
@@ -9286,7 +9377,7 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -9330,7 +9421,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C50" s="5">
         <v>40878</v>
@@ -9347,7 +9438,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C51" s="5">
         <v>41205</v>
@@ -9368,7 +9459,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C52" s="5">
         <v>43335</v>
@@ -9385,7 +9476,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C53" s="5">
         <v>42684</v>
@@ -9402,7 +9493,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C54" s="5">
         <v>43069</v>
@@ -9419,7 +9510,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C55" s="5">
         <v>42039</v>
@@ -9436,7 +9527,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C56" s="5">
         <v>41802</v>
@@ -9464,7 +9555,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -9472,7 +9563,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C58" s="5">
         <v>42824</v>
@@ -9489,7 +9580,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C59" s="5">
         <v>41592</v>
@@ -9506,7 +9597,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C60" s="5">
         <v>41928</v>
@@ -9523,7 +9614,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C61" s="5">
         <v>41342</v>
@@ -9542,7 +9633,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C62" s="5">
         <v>42684</v>
@@ -9556,10 +9647,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C63" s="5">
         <v>40535</v>
@@ -9576,14 +9667,14 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C64" s="5">
         <v>42105</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -9593,7 +9684,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C65" s="5">
         <v>43163</v>
@@ -9610,7 +9701,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>377</v>
+        <v>998</v>
       </c>
       <c r="C66" s="5">
         <v>41489</v>
@@ -9631,14 +9722,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>342</v>
+        <v>999</v>
       </c>
       <c r="C67" s="5">
         <v>43349</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -9659,7 +9750,9 @@
         <v>684</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -9683,7 +9776,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="C70" s="5">
         <v>40717</v>
@@ -9700,7 +9793,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>381</v>
+        <v>1001</v>
       </c>
       <c r="C71" s="5">
         <v>41445</v>
@@ -9828,12 +9921,9 @@
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>697</v>
+      </c>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
@@ -9847,12 +9937,12 @@
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="G79" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
@@ -9888,14 +9978,16 @@
       <c r="F81" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>392</v>
+        <v>1003</v>
       </c>
       <c r="C82" s="5">
         <v>42579</v>
@@ -9914,7 +10006,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>393</v>
+        <v>1004</v>
       </c>
       <c r="C83" s="5">
         <v>41543</v>
@@ -9931,7 +10023,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>394</v>
+        <v>1005</v>
       </c>
       <c r="C84" s="5">
         <v>42866</v>
@@ -9981,7 +10073,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>1006</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>397</v>
@@ -10022,7 +10114,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>399</v>
+        <v>1007</v>
       </c>
       <c r="C89" s="5">
         <v>42306</v>
@@ -10036,7 +10128,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>87</v>
+        <v>1008</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>400</v>
@@ -10058,7 +10150,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>401</v>
+        <v>1009</v>
       </c>
       <c r="C91" s="5">
         <v>43279</v>
@@ -10098,11 +10190,13 @@
         <v>41835</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>1010</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>91</v>
       </c>
@@ -10141,7 +10235,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>405</v>
+        <v>1011</v>
       </c>
       <c r="C96" s="5">
         <v>40661</v>
@@ -10158,7 +10252,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>406</v>
+        <v>1012</v>
       </c>
       <c r="C97" s="5">
         <v>42642</v>
@@ -10175,7 +10269,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>407</v>
+        <v>1013</v>
       </c>
       <c r="C98" s="5">
         <v>41564</v>
@@ -10209,7 +10303,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>409</v>
+        <v>1014</v>
       </c>
       <c r="C100" s="5">
         <v>41313</v>
@@ -10296,7 +10390,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>414</v>
+        <v>1015</v>
       </c>
       <c r="C105" s="5">
         <v>43166</v>
@@ -10355,7 +10449,9 @@
       <c r="F108" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
@@ -10633,7 +10729,9 @@
         <v>746</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
@@ -10686,7 +10784,9 @@
         <v>749</v>
       </c>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
@@ -10700,9 +10800,8 @@
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="F128" s="4"/>
+        <v>752</v>
+      </c>
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -10717,7 +10816,7 @@
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -10848,6 +10947,9 @@
       <c r="E138" t="s">
         <v>762</v>
       </c>
+      <c r="G138" s="4" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
@@ -10936,7 +11038,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>139</v>
       </c>
@@ -10950,7 +11052,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>140</v>
       </c>
@@ -10964,7 +11066,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>141</v>
       </c>
@@ -10978,7 +11080,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>142</v>
       </c>
@@ -10992,7 +11094,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>143</v>
       </c>
@@ -11006,7 +11108,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>144</v>
       </c>
@@ -11020,7 +11122,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>145</v>
       </c>
@@ -11034,7 +11136,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>146</v>
       </c>
@@ -11048,7 +11150,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>147</v>
       </c>
@@ -11059,8 +11161,11 @@
       <c r="E153" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>148</v>
       </c>
@@ -11074,7 +11179,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>149</v>
       </c>
@@ -11088,8 +11193,8 @@
         <v>778</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -11099,12 +11204,13 @@
         <v>41837</v>
       </c>
       <c r="E156" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1018</v>
+      </c>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>151</v>
+        <v>1019</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>459</v>
@@ -11113,7 +11219,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>152</v>
       </c>
@@ -11124,10 +11230,10 @@
         <v>40871</v>
       </c>
       <c r="D158" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>153</v>
       </c>
@@ -11141,7 +11247,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>63</v>
       </c>
@@ -11161,7 +11267,7 @@
         <v>41956</v>
       </c>
       <c r="E161" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -11175,7 +11281,7 @@
         <v>40626</v>
       </c>
       <c r="E162" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -11189,7 +11295,7 @@
         <v>43447</v>
       </c>
       <c r="E163" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11202,11 +11308,8 @@
       <c r="C164" s="5">
         <v>43040</v>
       </c>
-      <c r="D164" t="s">
-        <v>785</v>
-      </c>
-      <c r="F164" t="s">
-        <v>786</v>
+      <c r="G164" s="8" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -11220,7 +11323,7 @@
         <v>42985</v>
       </c>
       <c r="E165" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -11234,10 +11337,10 @@
         <v>43224</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F166" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -11251,7 +11354,7 @@
         <v>40878</v>
       </c>
       <c r="E167" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -11265,13 +11368,13 @@
         <v>40188</v>
       </c>
       <c r="D168" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E168" t="s">
         <v>609</v>
       </c>
       <c r="F168" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -11285,7 +11388,7 @@
         <v>42299</v>
       </c>
       <c r="E169" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -11299,7 +11402,7 @@
         <v>41753</v>
       </c>
       <c r="E170" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -11313,7 +11416,7 @@
         <v>41823</v>
       </c>
       <c r="E171" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -11327,7 +11430,7 @@
         <v>41018</v>
       </c>
       <c r="E172" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -11341,7 +11444,7 @@
         <v>41004</v>
       </c>
       <c r="E173" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -11355,7 +11458,7 @@
         <v>43293</v>
       </c>
       <c r="E174" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -11369,7 +11472,7 @@
         <v>41403</v>
       </c>
       <c r="E175" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -11383,7 +11486,7 @@
         <v>42977</v>
       </c>
       <c r="D176" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>655</v>
@@ -11411,7 +11514,7 @@
         <v>41808</v>
       </c>
       <c r="D178" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -11425,7 +11528,7 @@
         <v>41753</v>
       </c>
       <c r="E179" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -11439,7 +11542,7 @@
         <v>42677</v>
       </c>
       <c r="E180" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -11453,7 +11556,7 @@
         <v>41571</v>
       </c>
       <c r="E181" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -11467,13 +11570,13 @@
         <v>40272</v>
       </c>
       <c r="D182" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E182" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F182" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -11487,7 +11590,7 @@
         <v>40675</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -11501,7 +11604,7 @@
         <v>43489</v>
       </c>
       <c r="E184" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -11515,7 +11618,7 @@
         <v>40703</v>
       </c>
       <c r="E185" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -11529,7 +11632,7 @@
         <v>41816</v>
       </c>
       <c r="E186" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -11543,7 +11646,7 @@
         <v>42152</v>
       </c>
       <c r="E187" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -11557,10 +11660,10 @@
         <v>40654</v>
       </c>
       <c r="E188" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F188" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -11574,7 +11677,7 @@
         <v>42264</v>
       </c>
       <c r="E189" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -11588,7 +11691,7 @@
         <v>41872</v>
       </c>
       <c r="D190" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E190" s="4"/>
     </row>
@@ -11603,7 +11706,7 @@
         <v>40402</v>
       </c>
       <c r="E191" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -11617,7 +11720,7 @@
         <v>42313</v>
       </c>
       <c r="E192" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -11631,7 +11734,7 @@
         <v>42873</v>
       </c>
       <c r="E193" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -11645,7 +11748,7 @@
         <v>43139</v>
       </c>
       <c r="E194" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -11659,7 +11762,7 @@
         <v>41941</v>
       </c>
       <c r="E195" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -11673,7 +11776,7 @@
         <v>42236</v>
       </c>
       <c r="E196" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -11687,7 +11790,7 @@
         <v>41865</v>
       </c>
       <c r="E197" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -11701,7 +11804,7 @@
         <v>42719</v>
       </c>
       <c r="E198" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -11715,7 +11818,7 @@
         <v>43174</v>
       </c>
       <c r="E199" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -11729,7 +11832,7 @@
         <v>40262</v>
       </c>
       <c r="E200" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -11757,7 +11860,7 @@
         <v>40815</v>
       </c>
       <c r="E202" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -11771,7 +11874,7 @@
         <v>43020</v>
       </c>
       <c r="E203" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -11785,7 +11888,7 @@
         <v>40738</v>
       </c>
       <c r="E204" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -11799,7 +11902,7 @@
         <v>41970</v>
       </c>
       <c r="E205" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -11813,7 +11916,7 @@
         <v>41389</v>
       </c>
       <c r="E206" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -11838,7 +11941,7 @@
         <v>41395</v>
       </c>
       <c r="E208" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -11852,7 +11955,7 @@
         <v>40920</v>
       </c>
       <c r="E209" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -11866,7 +11969,7 @@
         <v>40514</v>
       </c>
       <c r="D210" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -11880,7 +11983,7 @@
         <v>42957</v>
       </c>
       <c r="E211" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -11894,7 +11997,7 @@
         <v>40899</v>
       </c>
       <c r="E212" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -11908,7 +12011,7 @@
         <v>42327</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -11922,7 +12025,7 @@
         <v>41032</v>
       </c>
       <c r="E214" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -11936,7 +12039,7 @@
         <v>42579</v>
       </c>
       <c r="E215" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -11964,10 +12067,10 @@
         <v>41452</v>
       </c>
       <c r="D217" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E217" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -11981,7 +12084,7 @@
         <v>41648</v>
       </c>
       <c r="E218" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -11995,7 +12098,7 @@
         <v>41564</v>
       </c>
       <c r="E219" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F219" t="s">
         <v>609</v>
@@ -12012,7 +12115,7 @@
         <v>41578</v>
       </c>
       <c r="E220" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -12026,7 +12129,7 @@
         <v>41606</v>
       </c>
       <c r="E221" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -12040,12 +12143,12 @@
         <v>40213</v>
       </c>
       <c r="E222" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>516</v>
@@ -12054,12 +12157,12 @@
         <v>43244</v>
       </c>
       <c r="E223" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>517</v>
@@ -12068,7 +12171,7 @@
         <v>41606</v>
       </c>
       <c r="E224" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -12082,10 +12185,10 @@
         <v>41620</v>
       </c>
       <c r="E225" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F225" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -12113,7 +12216,7 @@
         <v>41632</v>
       </c>
       <c r="E227" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -12127,7 +12230,7 @@
         <v>41879</v>
       </c>
       <c r="E228" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -12141,7 +12244,7 @@
         <v>40374</v>
       </c>
       <c r="E229" t="s">
-        <v>854</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -12155,7 +12258,7 @@
         <v>40220</v>
       </c>
       <c r="E230" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -12169,10 +12272,10 @@
         <v>41537</v>
       </c>
       <c r="E231" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F231" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -12186,7 +12289,7 @@
         <v>42285</v>
       </c>
       <c r="E232" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -12200,10 +12303,10 @@
         <v>42550</v>
       </c>
       <c r="D233" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E233" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -12217,7 +12320,7 @@
         <v>43174</v>
       </c>
       <c r="E234" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -12231,7 +12334,7 @@
         <v>43216</v>
       </c>
       <c r="E235" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -12245,7 +12348,7 @@
         <v>40437</v>
       </c>
       <c r="E236" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -12259,7 +12362,7 @@
         <v>42299</v>
       </c>
       <c r="E237" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -12273,7 +12376,7 @@
         <v>41725</v>
       </c>
       <c r="E238" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -12287,7 +12390,7 @@
         <v>41984</v>
       </c>
       <c r="E239" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -12301,7 +12404,7 @@
         <v>41662</v>
       </c>
       <c r="E240" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -12315,7 +12418,7 @@
         <v>41823</v>
       </c>
       <c r="E241" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -12329,7 +12432,7 @@
         <v>43153</v>
       </c>
       <c r="E242" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -12343,7 +12446,7 @@
         <v>42516</v>
       </c>
       <c r="E243" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -12357,7 +12460,7 @@
         <v>43090</v>
       </c>
       <c r="E244" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -12371,7 +12474,7 @@
         <v>41549</v>
       </c>
       <c r="D245" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -12385,10 +12488,10 @@
         <v>41746</v>
       </c>
       <c r="D246" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E246" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -12402,7 +12505,7 @@
         <v>41998</v>
       </c>
       <c r="E247" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -12416,7 +12519,7 @@
         <v>41249</v>
       </c>
       <c r="E248" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -12430,7 +12533,7 @@
         <v>41767</v>
       </c>
       <c r="E249" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -12444,7 +12547,7 @@
         <v>42305</v>
       </c>
       <c r="E250" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -12458,7 +12561,7 @@
         <v>41277</v>
       </c>
       <c r="E251" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -12472,7 +12575,7 @@
         <v>42691</v>
       </c>
       <c r="E252" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -12486,7 +12589,7 @@
         <v>42306</v>
       </c>
       <c r="E253" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -12500,7 +12603,7 @@
         <v>41613</v>
       </c>
       <c r="E254" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -12514,12 +12617,12 @@
         <v>42901</v>
       </c>
       <c r="E255" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>542</v>
@@ -12528,7 +12631,7 @@
         <v>42250</v>
       </c>
       <c r="E256" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -12542,7 +12645,7 @@
         <v>43069</v>
       </c>
       <c r="E257" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -12556,7 +12659,7 @@
         <v>41494</v>
       </c>
       <c r="E258" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -12570,7 +12673,7 @@
         <v>40507</v>
       </c>
       <c r="E259" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -12584,7 +12687,7 @@
         <v>42565</v>
       </c>
       <c r="E260" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -12598,10 +12701,10 @@
         <v>41158</v>
       </c>
       <c r="D261" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E261" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -12615,7 +12718,7 @@
         <v>42971</v>
       </c>
       <c r="E262" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -12629,10 +12732,13 @@
         <v>41123</v>
       </c>
       <c r="D263" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>548</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -12646,7 +12752,7 @@
         <v>41788</v>
       </c>
       <c r="D264" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -12660,7 +12766,7 @@
         <v>42817</v>
       </c>
       <c r="E265" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -12674,7 +12780,7 @@
         <v>43510</v>
       </c>
       <c r="E266" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F266" t="s">
         <v>609</v>
@@ -12705,7 +12811,7 @@
         <v>41445</v>
       </c>
       <c r="E268" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -12719,10 +12825,10 @@
         <v>41781</v>
       </c>
       <c r="E269" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G269" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -12736,7 +12842,7 @@
         <v>41788</v>
       </c>
       <c r="E270" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -12750,7 +12856,7 @@
         <v>41564</v>
       </c>
       <c r="E271" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -12764,10 +12870,10 @@
         <v>41690</v>
       </c>
       <c r="E272" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>266</v>
       </c>
@@ -12778,10 +12884,10 @@
         <v>43377</v>
       </c>
       <c r="E273" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>267</v>
       </c>
@@ -12792,10 +12898,10 @@
         <v>43462</v>
       </c>
       <c r="E274" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>268</v>
       </c>
@@ -12806,10 +12912,10 @@
         <v>41963</v>
       </c>
       <c r="E275" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>269</v>
       </c>
@@ -12820,10 +12926,10 @@
         <v>42131</v>
       </c>
       <c r="E276" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>270</v>
       </c>
@@ -12834,10 +12940,10 @@
         <v>43425</v>
       </c>
       <c r="E277" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>271</v>
       </c>
@@ -12848,10 +12954,10 @@
         <v>42495</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>272</v>
       </c>
@@ -12862,10 +12968,10 @@
         <v>42131</v>
       </c>
       <c r="E279" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>273</v>
       </c>
@@ -12876,10 +12982,10 @@
         <v>42662</v>
       </c>
       <c r="E280" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>274</v>
       </c>
@@ -12890,10 +12996,10 @@
         <v>41907</v>
       </c>
       <c r="E281" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>275</v>
       </c>
@@ -12904,10 +13010,10 @@
         <v>41746</v>
       </c>
       <c r="E282" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>276</v>
       </c>
@@ -12918,10 +13024,10 @@
         <v>40395</v>
       </c>
       <c r="E283" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>277</v>
       </c>
@@ -12932,10 +13038,10 @@
         <v>42096</v>
       </c>
       <c r="E284" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>278</v>
       </c>
@@ -12946,10 +13052,10 @@
         <v>42257</v>
       </c>
       <c r="E285" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>279</v>
       </c>
@@ -12960,10 +13066,10 @@
         <v>41361</v>
       </c>
       <c r="E286" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>280</v>
       </c>
@@ -12974,10 +13080,10 @@
         <v>42362</v>
       </c>
       <c r="E287" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>281</v>
       </c>
@@ -12988,7 +13094,10 @@
         <v>40815</v>
       </c>
       <c r="E288" t="s">
-        <v>916</v>
+        <v>913</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -13002,7 +13111,7 @@
         <v>40388</v>
       </c>
       <c r="D289" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -13016,12 +13125,12 @@
         <v>41760</v>
       </c>
       <c r="E290" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>515</v>
@@ -13030,7 +13139,7 @@
         <v>42012</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -13044,7 +13153,7 @@
         <v>41746</v>
       </c>
       <c r="E292" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -13058,7 +13167,7 @@
         <v>42558</v>
       </c>
       <c r="E293" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -13072,7 +13181,7 @@
         <v>41452</v>
       </c>
       <c r="E294" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -13086,10 +13195,10 @@
         <v>41718</v>
       </c>
       <c r="D295" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E295" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>655</v>
@@ -13106,7 +13215,7 @@
         <v>41592</v>
       </c>
       <c r="E296" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -13120,7 +13229,7 @@
         <v>42222</v>
       </c>
       <c r="E297" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -13134,7 +13243,7 @@
         <v>40772</v>
       </c>
       <c r="E298" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -13148,10 +13257,10 @@
         <v>41715</v>
       </c>
       <c r="E299" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F299" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -13165,7 +13274,7 @@
         <v>40486</v>
       </c>
       <c r="E300" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -13179,7 +13288,7 @@
         <v>43426</v>
       </c>
       <c r="E301" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -13193,7 +13302,7 @@
         <v>41857</v>
       </c>
       <c r="E302" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -13207,7 +13316,7 @@
         <v>40591</v>
       </c>
       <c r="E303" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -13221,10 +13330,10 @@
         <v>43033</v>
       </c>
       <c r="E304" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>298</v>
       </c>
@@ -13235,10 +13344,10 @@
         <v>40206</v>
       </c>
       <c r="E305" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>299</v>
       </c>
@@ -13249,10 +13358,10 @@
         <v>42866</v>
       </c>
       <c r="E306" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>300</v>
       </c>
@@ -13263,10 +13372,10 @@
         <v>42075</v>
       </c>
       <c r="E307" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>301</v>
       </c>
@@ -13277,10 +13386,10 @@
         <v>43454</v>
       </c>
       <c r="E308" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>302</v>
       </c>
@@ -13291,13 +13400,13 @@
         <v>40283</v>
       </c>
       <c r="D309" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F309" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>303</v>
       </c>
@@ -13308,10 +13417,10 @@
         <v>41858</v>
       </c>
       <c r="E310" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>304</v>
       </c>
@@ -13322,10 +13431,10 @@
         <v>41046</v>
       </c>
       <c r="E311" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>305</v>
       </c>
@@ -13336,10 +13445,10 @@
         <v>42788</v>
       </c>
       <c r="E312" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>306</v>
       </c>
@@ -13350,10 +13459,10 @@
         <v>42061</v>
       </c>
       <c r="E313" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>307</v>
       </c>
@@ -13364,10 +13473,10 @@
         <v>43433</v>
       </c>
       <c r="D314" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>308</v>
       </c>
@@ -13378,10 +13487,10 @@
         <v>41123</v>
       </c>
       <c r="E315" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>309</v>
       </c>
@@ -13392,10 +13501,10 @@
         <v>43250</v>
       </c>
       <c r="E316" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>310</v>
       </c>
@@ -13406,10 +13515,13 @@
         <v>42152</v>
       </c>
       <c r="D317" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+        <v>944</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>311</v>
       </c>
@@ -13420,10 +13532,10 @@
         <v>42243</v>
       </c>
       <c r="E318" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>312</v>
       </c>
@@ -13434,10 +13546,10 @@
         <v>41165</v>
       </c>
       <c r="E319" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>313</v>
       </c>
@@ -13448,7 +13560,7 @@
         <v>43097</v>
       </c>
       <c r="E320" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -13462,7 +13574,7 @@
         <v>40213</v>
       </c>
       <c r="E321" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -13476,7 +13588,7 @@
         <v>41185</v>
       </c>
       <c r="E322" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -13490,7 +13602,7 @@
         <v>41809</v>
       </c>
       <c r="E323" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
